--- a/StructureDefinition-ext-R5-Practitioner.communication.xlsx
+++ b/StructureDefinition-ext-R5-Practitioner.communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -350,7 +350,7 @@
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
-    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Practitioner.communication.language` is mapped to FHIR R4 structure `Practitioner`, but has no target element specified.</t>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Practitioner.communication.language` is will have a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -435,7 +435,7 @@
     <t>This language is specifically identified for communicating directly with the practitioner (typically un-related to patient communications).</t>
   </si>
   <si>
-    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Practitioner.communication.preferred` is mapped to FHIR R4 structure `Practitioner`, but has no target element specified.</t>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Practitioner.communication.preferred` is will have a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>

--- a/StructureDefinition-ext-R5-Practitioner.communication.xlsx
+++ b/StructureDefinition-ext-R5-Practitioner.communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Practitioner.communication` 0..* `CodeableConcept`
 *  R4: `Practitioner.communication` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `Practitioner.communication` is mapped to FHIR R4 element `Practitioner.communication`.</t>
+Element `Practitioner.communication` has is mapped to FHIR R4 element `Practitioner.communication`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -350,7 +350,8 @@
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
-    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Practitioner.communication.language` is will have a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Practitioner.communication.language` is part of an existing definition because parent element `Practitioner.communication` requires a cross-version extension.
+Element `Practitioner.communication.language` has a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -397,6 +398,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication.language</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -435,7 +439,8 @@
     <t>This language is specifically identified for communicating directly with the practitioner (typically un-related to patient communications).</t>
   </si>
   <si>
-    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Practitioner.communication.preferred` is will have a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Practitioner.communication.preferred` is part of an existing definition because parent element `Practitioner.communication` requires a cross-version extension.
+Element `Practitioner.communication.preferred` has a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>
@@ -445,6 +450,9 @@
   </si>
   <si>
     <t>Extension.extension:preferred.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication.preferred</t>
   </si>
   <si>
     <t>Extension.extension:preferred.value[x]</t>
@@ -1611,7 +1619,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1653,7 +1661,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1668,15 +1676,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1699,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1758,7 +1766,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1770,21 +1778,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1809,16 +1817,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1887,7 +1895,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -1990,7 +1998,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2095,7 +2103,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2138,7 +2146,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2180,7 +2188,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2195,15 +2203,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2226,16 +2234,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2285,7 +2293,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2297,18 +2305,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2390,7 +2398,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -2405,15 +2413,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2436,13 +2444,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2493,7 +2501,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2505,10 +2513,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Practitioner.communication.xlsx
+++ b/StructureDefinition-ext-R5-Practitioner.communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-Practitioner.communication.xlsx
+++ b/StructureDefinition-ext-R5-Practitioner.communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Practitioner.communication` 0..* `CodeableConcept`
 *  R4: `Practitioner.communication` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `Practitioner.communication` has is mapped to FHIR R4 element `Practitioner.communication`, but has no comparisons.</t>
+Element `Practitioner.communication` is mapped to FHIR R4 element `Practitioner.communication` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -350,8 +350,7 @@
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
-    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Practitioner.communication.language` is part of an existing definition because parent element `Practitioner.communication` requires a cross-version extension.
-Element `Practitioner.communication.language` has a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
+    <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect. Element `Practitioner.communication.language` has a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t>Extension.extension:language.id</t>
@@ -398,9 +397,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication.language</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -439,8 +435,7 @@
     <t>This language is specifically identified for communicating directly with the practitioner (typically un-related to patient communications).</t>
   </si>
   <si>
-    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Practitioner.communication.preferred` is part of an existing definition because parent element `Practitioner.communication` requires a cross-version extension.
-Element `Practitioner.communication.preferred` has a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
+    <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method. Element `Practitioner.communication.preferred` has a context of Practitioner.communication based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t>Extension.extension:preferred.id</t>
@@ -450,9 +445,6 @@
   </si>
   <si>
     <t>Extension.extension:preferred.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication.preferred</t>
   </si>
   <si>
     <t>Extension.extension:preferred.value[x]</t>
@@ -1619,72 +1611,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1707,7 +1699,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1766,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1778,21 +1770,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1817,16 +1809,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1895,7 +1887,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -1998,7 +1990,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2103,7 +2095,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2146,7 +2138,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2188,30 +2180,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2234,16 +2226,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2293,7 +2285,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2305,18 +2297,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2398,30 +2390,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2444,13 +2436,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2501,7 +2493,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2513,10 +2505,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
